--- a/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
+++ b/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED742D1-7FE0-40B7-89A3-644B95AF6572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10937C4-9CC1-4C08-B425-66FA65A8F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>持続（秒）</t>
   </si>
@@ -39,6 +39,18 @@
     <t>全体（秒）</t>
   </si>
   <si>
+    <t>モーション時間(秒)</t>
+  </si>
+  <si>
+    <t>総パターン数</t>
+  </si>
+  <si>
+    <t>切り取り位置(始)</t>
+  </si>
+  <si>
+    <t>切り取り位置(終)</t>
+  </si>
+  <si>
     <t>待機</t>
   </si>
   <si>
@@ -52,6 +64,9 @@
   </si>
   <si>
     <t>ジャンプ</t>
+  </si>
+  <si>
+    <t>落下</t>
   </si>
   <si>
     <t>拳</t>
@@ -97,13 +112,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -442,19 +464,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -464,55 +489,103 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <f>I2+1</f>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G19" si="0">I3+1</f>
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>SUM(B2:C2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>SUM(B3:C3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>SUM(B4:C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -524,85 +597,145 @@
         <f>SUM(B5:C5)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <f>D5</f>
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <f>I5+1</f>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0.3</v>
-      </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
         <v>0.25</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D8" si="0">SUM(B6:C6)</f>
+      <c r="D7">
+        <f t="shared" ref="D7:D9" si="1">SUM(B7:C7)</f>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-      <c r="C7">
+      <c r="F7">
+        <f>D7</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
         <v>0.35</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="D8">
+        <f t="shared" si="1"/>
         <v>0.64999999999999991</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.3</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <f t="shared" ref="F8:F19" si="2">D8</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D10" si="1">SUM(B9:C9)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <f t="shared" ref="D10:D11" si="3">SUM(B10:C10)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" customHeight="1">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -611,28 +744,50 @@
         <v>0.4</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11" si="2">SUM(B11:C11)</f>
+        <f t="shared" si="3"/>
         <v>0.60000000000000009</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12" si="3">SUM(B12:C12)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <f t="shared" ref="D12" si="4">SUM(B12:C12)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -641,83 +796,175 @@
         <v>0.3</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="4">SUM(B13:C13)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <f t="shared" ref="D13" si="5">SUM(B13:C13)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="6">SUM(B14:C14)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.5</v>
-      </c>
-      <c r="D14">
-        <f>SUM(B14:C14)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>0.3</v>
       </c>
       <c r="D15">
         <f>SUM(B15:C15)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0.2</v>
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16">
         <v>0.3</v>
       </c>
       <c r="D16">
         <f>SUM(B16:C16)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D17">
         <f>SUM(B17:C17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f>SUM(B18:C18)</f>
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+      <c r="D19">
+        <f>SUM(B19:C19)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
+++ b/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10937C4-9CC1-4C08-B425-66FA65A8F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EC88862-09E1-437B-BFC8-52D056774CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
+++ b/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EC88862-09E1-437B-BFC8-52D056774CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5940E349-D325-4946-8234-56618B415C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>持続（秒）</t>
   </si>
@@ -51,6 +51,12 @@
     <t>切り取り位置(終)</t>
   </si>
   <si>
+    <t>幅</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
     <t>待機</t>
   </si>
   <si>
@@ -66,7 +72,16 @@
     <t>ジャンプ</t>
   </si>
   <si>
-    <t>落下</t>
+    <t>空中</t>
+  </si>
+  <si>
+    <t>空中にいる間</t>
+  </si>
+  <si>
+    <t>着地</t>
+  </si>
+  <si>
+    <t>地面着地まで</t>
   </si>
   <si>
     <t>拳</t>
@@ -464,22 +479,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -501,13 +517,19 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" customHeight="1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -528,13 +550,19 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J2">
+        <v>320</v>
+      </c>
+      <c r="K2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -546,7 +574,7 @@
         <v>1.2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G19" si="0">I3+1</f>
+        <f t="shared" ref="G3:G4" si="0">I3+1</f>
         <v>4</v>
       </c>
       <c r="H3">
@@ -555,13 +583,19 @@
       <c r="I3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>320</v>
+      </c>
+      <c r="K3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -582,10 +616,16 @@
       <c r="I4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J4">
+        <v>320</v>
+      </c>
+      <c r="K4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -611,157 +651,213 @@
       <c r="I5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J5">
+        <v>320</v>
+      </c>
+      <c r="K5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6" si="1">I6+1</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>320</v>
+      </c>
+      <c r="K6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7" si="2">I7+1</f>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>320</v>
+      </c>
+      <c r="K7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D10" si="3">SUM(B8:C8)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8">
+        <f>D8</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G8">
+        <f>I8+1</f>
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-      <c r="C7">
-        <v>0.25</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D9" si="1">SUM(B7:C7)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F7">
-        <f>D7</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.3</v>
-      </c>
-      <c r="C8">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>320</v>
+      </c>
+      <c r="K8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
         <v>0.35</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
+      <c r="D9">
+        <f t="shared" si="3"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F19" si="2">D8</f>
+      <c r="F9">
+        <f t="shared" ref="F9:F20" si="4">D9</f>
         <v>0.64999999999999991</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0.3</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>I9+1</f>
         <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1">
+      <c r="J9">
+        <v>320</v>
+      </c>
+      <c r="K9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D11" si="3">SUM(B10:C10)</f>
-        <v>0.7</v>
+        <f t="shared" si="3"/>
+        <v>0.8</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
+        <f t="shared" si="4"/>
+        <v>0.8</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>I10+1</f>
         <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" customHeight="1">
+      <c r="J10">
+        <v>320</v>
+      </c>
+      <c r="K10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0.2</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="D11:D12" si="5">SUM(B11:C11)</f>
+        <v>0.7</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="4"/>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>I11+1</f>
         <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J11">
+        <v>320</v>
+      </c>
+      <c r="K11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -770,50 +866,68 @@
         <v>0.4</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12" si="4">SUM(B12:C12)</f>
+        <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>I12+1</f>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1">
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>320</v>
+      </c>
+      <c r="K12">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="5">SUM(B13:C13)</f>
-        <v>0.3</v>
+        <f t="shared" ref="D13" si="6">SUM(B13:C13)</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>I13+1</f>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>320</v>
+      </c>
+      <c r="K13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -822,149 +936,220 @@
         <v>0.3</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14" si="6">SUM(B14:C14)</f>
+        <f t="shared" ref="D14" si="7">SUM(B14:C14)</f>
         <v>0.3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>I14+1</f>
         <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J14">
+        <v>320</v>
+      </c>
+      <c r="K14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15" si="8">SUM(B15:C15)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <f>I15+1</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>320</v>
+      </c>
+      <c r="K15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.5</v>
-      </c>
-      <c r="D15">
-        <f>SUM(B15:C15)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>0.3</v>
       </c>
       <c r="D16">
         <f>SUM(B16:C16)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>I16+1</f>
         <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>320</v>
+      </c>
+      <c r="K16">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>0.2</v>
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
       <c r="C17">
         <v>0.3</v>
       </c>
       <c r="D17">
         <f>SUM(B17:C17)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>I17+1</f>
         <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17">
+        <v>320</v>
+      </c>
+      <c r="K17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D18">
         <f>SUM(B18:C18)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>I18+1</f>
         <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18">
+        <v>320</v>
+      </c>
+      <c r="K18">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f>SUM(B19:C19)</f>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>I19+1</f>
         <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
+      </c>
+      <c r="J19">
+        <v>320</v>
+      </c>
+      <c r="K19">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <f>SUM(B20:C20)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <f>I20+1</f>
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>320</v>
+      </c>
+      <c r="K20">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
+++ b/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5940E349-D325-4946-8234-56618B415C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2673C1AD-D9DF-465F-AA5F-EB21CC0CB84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>持続（秒）</t>
   </si>
@@ -51,16 +51,46 @@
     <t>切り取り位置(終)</t>
   </si>
   <si>
-    <t>幅</t>
-  </si>
-  <si>
-    <t>高</t>
+    <t>当たり判定(x,y,w,h)1</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)2</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)3</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)4</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)5</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)6</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)7</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)8</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)9</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)10</t>
+  </si>
+  <si>
+    <t>当たり判定(x,y,w,h)11</t>
   </si>
   <si>
     <t>待機</t>
   </si>
   <si>
     <t>キー</t>
+  </si>
+  <si>
+    <t>{62,30,35,130}</t>
   </si>
   <si>
     <t>歩き</t>
@@ -162,9 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -479,23 +510,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="11" max="22" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:21">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -517,19 +549,46 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A2" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -541,28 +600,25 @@
         <v>0.6</v>
       </c>
       <c r="G2">
-        <f>I2+1</f>
         <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
+        <f>G2-1</f>
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>320</v>
-      </c>
-      <c r="K2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -574,28 +630,22 @@
         <v>1.2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">I3+1</f>
         <v>4</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <f t="shared" ref="I3:I20" si="0">G3-1</f>
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>320</v>
-      </c>
-      <c r="K3">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" t="s">
-        <v>12</v>
+    </row>
+    <row r="4" spans="1:21" ht="18" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -607,25 +657,19 @@
         <v>0.8</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>320</v>
-      </c>
-      <c r="K4">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
-      <c r="A5" t="s">
-        <v>13</v>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -642,28 +686,22 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <f>I5+1</f>
         <v>8</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J5">
-        <v>320</v>
-      </c>
-      <c r="K5">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -675,28 +713,22 @@
         <v>0.25</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6" si="1">I6+1</f>
         <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>320</v>
-      </c>
-      <c r="K6">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A7" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="1:21" ht="19.5" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -708,25 +740,19 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7" si="2">I7+1</f>
         <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>320</v>
-      </c>
-      <c r="K7">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>18</v>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0.3</v>
@@ -735,7 +761,7 @@
         <v>0.25</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D10" si="3">SUM(B8:C8)</f>
+        <f t="shared" ref="D8:D10" si="1">SUM(B8:C8)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="F8">
@@ -743,25 +769,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G8">
-        <f>I8+1</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>320</v>
-      </c>
-      <c r="K8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0.3</v>
@@ -770,30 +790,24 @@
         <v>0.35</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F20" si="4">D9</f>
+        <f t="shared" ref="F9:F20" si="2">D9</f>
         <v>0.64999999999999991</v>
       </c>
-      <c r="G9">
-        <f>I9+1</f>
-        <v>1</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>320</v>
-      </c>
-      <c r="K9">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0.3</v>
@@ -802,30 +816,24 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G10">
-        <f>I10+1</f>
-        <v>1</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>320</v>
-      </c>
-      <c r="K10">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A11" t="s">
-        <v>21</v>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="19.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -834,30 +842,24 @@
         <v>0.5</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D12" si="5">SUM(B11:C11)</f>
+        <f t="shared" ref="D11:D12" si="3">SUM(B11:C11)</f>
         <v>0.7</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="G11">
-        <f>I11+1</f>
-        <v>1</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>320</v>
-      </c>
-      <c r="K11">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>22</v>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -866,33 +868,27 @@
         <v>0.4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G12">
-        <f>I12+1</f>
         <v>8</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J12">
-        <v>320</v>
-      </c>
-      <c r="K12">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" t="s">
-        <v>23</v>
+    </row>
+    <row r="13" spans="1:21" ht="18" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -901,33 +897,27 @@
         <v>0.4</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="6">SUM(B13:C13)</f>
+        <f t="shared" ref="D13" si="4">SUM(B13:C13)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G13">
-        <f>I13+1</f>
         <v>8</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J13">
-        <v>320</v>
-      </c>
-      <c r="K13">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" t="s">
-        <v>24</v>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -936,30 +926,27 @@
         <v>0.3</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14" si="7">SUM(B14:C14)</f>
+        <f t="shared" ref="D14" si="5">SUM(B14:C14)</f>
         <v>0.3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G14">
-        <f>I14+1</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>320</v>
-      </c>
-      <c r="K14">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>25</v>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -968,30 +955,27 @@
         <v>0.3</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15" si="8">SUM(B15:C15)</f>
+        <f t="shared" ref="D15" si="6">SUM(B15:C15)</f>
         <v>0.3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G15">
-        <f>I15+1</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>320</v>
-      </c>
-      <c r="K15">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>26</v>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1004,29 +988,26 @@
         <v>0.5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G16">
-        <f>I16+1</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>320</v>
-      </c>
-      <c r="K16">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>27</v>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>0.3</v>
@@ -1036,26 +1017,23 @@
         <v>0.3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G17">
-        <f>I17+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>320</v>
-      </c>
-      <c r="K17">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>28</v>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1068,26 +1046,23 @@
         <v>0.5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G18">
-        <f>I18+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>320</v>
-      </c>
-      <c r="K18">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>29</v>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1100,26 +1075,23 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f>I19+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>320</v>
-      </c>
-      <c r="K19">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>30</v>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1132,24 +1104,18 @@
         <v>0.3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G20">
-        <f>I20+1</f>
         <v>8</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
+        <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-      <c r="J20">
-        <v>320</v>
-      </c>
-      <c r="K20">
-        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
+++ b/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2673C1AD-D9DF-465F-AA5F-EB21CC0CB84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komya\Documents\GitHub\ENDPOINT\End Point 作業内容\企画\コンフィグデータ変換前\プレイヤー\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CED618D-E42F-4A75-8ADD-26BAA4D08EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="アニメーションデータ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
   <si>
     <t>持続（秒）</t>
   </si>
@@ -93,15 +85,60 @@
     <t>{62,30,35,130}</t>
   </si>
   <si>
+    <t>{113,147,26,102}</t>
+  </si>
+  <si>
     <t>歩き</t>
   </si>
   <si>
+    <t>{148,181,24,139}</t>
+  </si>
+  <si>
+    <t>{156,182,12,138}</t>
+  </si>
+  <si>
+    <t>{143,181,30,320}</t>
+  </si>
+  <si>
     <t>ダッシュ</t>
   </si>
   <si>
+    <t>{145,224,68,88}</t>
+  </si>
+  <si>
+    <t>{158,226,62,92}</t>
+  </si>
+  <si>
+    <t>{145,228,75,81}</t>
+  </si>
+  <si>
     <t>ジャンプ</t>
   </si>
   <si>
+    <t>{150,184,24,136}</t>
+  </si>
+  <si>
+    <t>{151,197,30,123}</t>
+  </si>
+  <si>
+    <t>{140,216,50,104}</t>
+  </si>
+  <si>
+    <t>{140,230,52,90}</t>
+  </si>
+  <si>
+    <t>{139,244,57,76}</t>
+  </si>
+  <si>
+    <t>{145,226,46,94}</t>
+  </si>
+  <si>
+    <t>{139,207,45,113}</t>
+  </si>
+  <si>
+    <t>{140,188,36,132}</t>
+  </si>
+  <si>
     <t>空中</t>
   </si>
   <si>
@@ -151,36 +188,546 @@
   </si>
   <si>
     <t>受け</t>
+  </si>
+  <si>
+    <t>{151,198,52,122}</t>
+  </si>
+  <si>
+    <t>{153,198,47,107}</t>
+  </si>
+  <si>
+    <t>{158,190,39,113}</t>
+  </si>
+  <si>
+    <t>{158,186,37,117}</t>
+  </si>
+  <si>
+    <t>{156,181,36,120}</t>
+  </si>
+  <si>
+    <t>{157,188,31,120}</t>
+  </si>
+  <si>
+    <t>{142,195,92,121}</t>
+  </si>
+  <si>
+    <t>{155,189,40,131}</t>
+  </si>
+  <si>
+    <t>{147,188,38,132}</t>
+  </si>
+  <si>
+    <t>{148,182,30,138}</t>
+  </si>
+  <si>
+    <t>{147,182,27,138}</t>
+  </si>
+  <si>
+    <t>{113,185,82,135}</t>
+  </si>
+  <si>
+    <t>{131,144,95,176}</t>
+  </si>
+  <si>
+    <t>{112,207,192,113}</t>
+  </si>
+  <si>
+    <t>{113,214,166,106}</t>
+  </si>
+  <si>
+    <t>{131,218,82,102}</t>
+  </si>
+  <si>
+    <t>{118,217,80,103}</t>
+  </si>
+  <si>
+    <t>{112,194,66,126}</t>
+  </si>
+  <si>
+    <t>{104,181,92,139}</t>
+  </si>
+  <si>
+    <t>{147,197,27,141}</t>
+  </si>
+  <si>
+    <t>{153,183,49,137}</t>
+  </si>
+  <si>
+    <t>{160,188,37,132}</t>
+  </si>
+  <si>
+    <t>{161,192,36,128}</t>
+  </si>
+  <si>
+    <t>{156,186,34,134}</t>
+  </si>
+  <si>
+    <t>{147,180,26,140}</t>
+  </si>
+  <si>
+    <t>{146,182,28,138}</t>
+  </si>
+  <si>
+    <t>{153,183,41,137}</t>
+  </si>
+  <si>
+    <t>{160,185,37,135}</t>
+  </si>
+  <si>
+    <t>{163,190,34,130}</t>
+  </si>
+  <si>
+    <t>{158,187,31,133}</t>
+  </si>
+  <si>
+    <t>{146,186,40,134}</t>
+  </si>
+  <si>
+    <t>{146,184,49,136}</t>
+  </si>
+  <si>
+    <t>{146,183,47,137}</t>
+  </si>
+  <si>
+    <t>{147,182,35,138}</t>
+  </si>
+  <si>
+    <t>{148,181,27,139}</t>
+  </si>
+  <si>
+    <t>{154,184,33,136}</t>
+  </si>
+  <si>
+    <t>{160,186,37,134}</t>
+  </si>
+  <si>
+    <t>{166,189,32,131}</t>
+  </si>
+  <si>
+    <t>{147,189,27,131}</t>
+  </si>
+  <si>
+    <t>{127,190,75,130}</t>
+  </si>
+  <si>
+    <t>{136,188,66,132}</t>
+  </si>
+  <si>
+    <t>{142,184,54,136}</t>
+  </si>
+  <si>
+    <t>{152,182,27,138}</t>
+  </si>
+  <si>
+    <t>{159,181,28,139}</t>
+  </si>
+  <si>
+    <t>{146,180,30,140}</t>
+  </si>
+  <si>
+    <t>{140,180,42,140}</t>
+  </si>
+  <si>
+    <t>{135,183,62,137}</t>
+  </si>
+  <si>
+    <t>{128,184,74,136}</t>
+  </si>
+  <si>
+    <t>{133,182,60,138}</t>
+  </si>
+  <si>
+    <t>{136,180,55,140}</t>
+  </si>
+  <si>
+    <t>{142,181,42,139}</t>
+  </si>
+  <si>
+    <t>{148,180,25,140}</t>
+  </si>
+  <si>
+    <t>{147,179,26,141}</t>
+  </si>
+  <si>
+    <t>{148,181,45,139}</t>
+  </si>
+  <si>
+    <t>{148,181,57,139}</t>
+  </si>
+  <si>
+    <t>{148,181,65,139}</t>
+  </si>
+  <si>
+    <t>{148,181,69,139}</t>
+  </si>
+  <si>
+    <t>{148,181,63,139}</t>
+  </si>
+  <si>
+    <t>{148,181,51,139}</t>
+  </si>
+  <si>
+    <t>{148,181,31,139}</t>
+  </si>
+  <si>
+    <t>{148,181,54,139}</t>
+  </si>
+  <si>
+    <t>{148,181,64,141}</t>
+  </si>
+  <si>
+    <t>{139,166,60,154}</t>
+  </si>
+  <si>
+    <t>{148,181,69,141}</t>
+  </si>
+  <si>
+    <t>{147,180,60,140}</t>
+  </si>
+  <si>
+    <t>{148,181,31,141}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Myanmar Text"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="1"/>
+      <color theme="1"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -188,20 +735,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -214,7 +948,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,29 +1236,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="22" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -543,10 +1273,10 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="K1" t="s">
@@ -583,8 +1313,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -606,16 +1336,18 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>G2-1</f>
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
       </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -636,13 +1368,24 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I20" si="0">G3-1</f>
         <v>3</v>
       </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="18" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -663,13 +1406,24 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -678,11 +1432,9 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>SUM(B5:C5)</f>
         <v>0.5</v>
       </c>
       <c r="F5">
-        <f>D5</f>
         <v>0.5</v>
       </c>
       <c r="G5">
@@ -692,16 +1444,39 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -719,16 +1494,15 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -746,13 +1520,12 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.3</v>
@@ -761,11 +1534,9 @@
         <v>0.25</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D10" si="1">SUM(B8:C8)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="F8">
-        <f>D8</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="G8">
@@ -775,13 +1546,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.3</v>
@@ -790,24 +1593,21 @@
         <v>0.35</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
+        <v>0.65</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F20" si="2">D9</f>
-        <v>0.64999999999999991</v>
+        <v>0.65</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.3</v>
@@ -816,24 +1616,21 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -842,24 +1639,21 @@
         <v>0.5</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D12" si="3">SUM(B11:C11)</f>
         <v>0.7</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -868,12 +1662,10 @@
         <v>0.4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -882,13 +1674,36 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>114</v>
+      </c>
+      <c r="R12" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -897,12 +1712,10 @@
         <v>0.4</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="4">SUM(B13:C13)</f>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -911,13 +1724,36 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -926,11 +1762,9 @@
         <v>0.3</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14" si="5">SUM(B14:C14)</f>
         <v>0.3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G14">
@@ -940,13 +1774,36 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -955,11 +1812,9 @@
         <v>0.3</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15" si="6">SUM(B15:C15)</f>
         <v>0.3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G15">
@@ -969,13 +1824,36 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
+      <c r="A16" t="s">
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -984,11 +1862,9 @@
         <v>0.5</v>
       </c>
       <c r="D16">
-        <f>SUM(B16:C16)</f>
         <v>0.5</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G16">
@@ -998,13 +1874,36 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1013,11 +1912,9 @@
         <v>0.3</v>
       </c>
       <c r="D17">
-        <f>SUM(B17:C17)</f>
         <v>0.3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G17">
@@ -1027,13 +1924,30 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1042,11 +1956,9 @@
         <v>0.3</v>
       </c>
       <c r="D18">
-        <f>SUM(B18:C18)</f>
         <v>0.5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G18">
@@ -1056,13 +1968,42 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="K18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>54</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1071,11 +2012,9 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f>SUM(B19:C19)</f>
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G19">
@@ -1085,13 +2024,42 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1100,11 +2068,9 @@
         <v>0.3</v>
       </c>
       <c r="D20">
-        <f>SUM(B20:C20)</f>
         <v>0.3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G20">
@@ -1114,8 +2080,31 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>106</v>
+      </c>
+      <c r="R20" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
+++ b/End Point 作業内容/企画/コンフィグデータ変換前/プレイヤー/アニメーションデータ.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komya\Documents\GitHub\ENDPOINT\End Point 作業内容\企画\コンフィグデータ変換前\プレイヤー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CED618D-E42F-4A75-8ADD-26BAA4D08EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E63120D-3A13-426B-9ED8-C51A8A519CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アニメーションデータ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>持続（秒）</t>
   </si>
@@ -43,102 +56,21 @@
     <t>切り取り位置(終)</t>
   </si>
   <si>
-    <t>当たり判定(x,y,w,h)1</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)2</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)3</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)4</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)5</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)6</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)7</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)8</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)9</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)10</t>
-  </si>
-  <si>
-    <t>当たり判定(x,y,w,h)11</t>
-  </si>
-  <si>
     <t>待機</t>
   </si>
   <si>
     <t>キー</t>
   </si>
   <si>
-    <t>{62,30,35,130}</t>
-  </si>
-  <si>
-    <t>{113,147,26,102}</t>
-  </si>
-  <si>
     <t>歩き</t>
   </si>
   <si>
-    <t>{148,181,24,139}</t>
-  </si>
-  <si>
-    <t>{156,182,12,138}</t>
-  </si>
-  <si>
-    <t>{143,181,30,320}</t>
-  </si>
-  <si>
     <t>ダッシュ</t>
   </si>
   <si>
-    <t>{145,224,68,88}</t>
-  </si>
-  <si>
-    <t>{158,226,62,92}</t>
-  </si>
-  <si>
-    <t>{145,228,75,81}</t>
-  </si>
-  <si>
     <t>ジャンプ</t>
   </si>
   <si>
-    <t>{150,184,24,136}</t>
-  </si>
-  <si>
-    <t>{151,197,30,123}</t>
-  </si>
-  <si>
-    <t>{140,216,50,104}</t>
-  </si>
-  <si>
-    <t>{140,230,52,90}</t>
-  </si>
-  <si>
-    <t>{139,244,57,76}</t>
-  </si>
-  <si>
-    <t>{145,226,46,94}</t>
-  </si>
-  <si>
-    <t>{139,207,45,113}</t>
-  </si>
-  <si>
-    <t>{140,188,36,132}</t>
-  </si>
-  <si>
     <t>空中</t>
   </si>
   <si>
@@ -188,210 +120,12 @@
   </si>
   <si>
     <t>受け</t>
-  </si>
-  <si>
-    <t>{151,198,52,122}</t>
-  </si>
-  <si>
-    <t>{153,198,47,107}</t>
-  </si>
-  <si>
-    <t>{158,190,39,113}</t>
-  </si>
-  <si>
-    <t>{158,186,37,117}</t>
-  </si>
-  <si>
-    <t>{156,181,36,120}</t>
-  </si>
-  <si>
-    <t>{157,188,31,120}</t>
-  </si>
-  <si>
-    <t>{142,195,92,121}</t>
-  </si>
-  <si>
-    <t>{155,189,40,131}</t>
-  </si>
-  <si>
-    <t>{147,188,38,132}</t>
-  </si>
-  <si>
-    <t>{148,182,30,138}</t>
-  </si>
-  <si>
-    <t>{147,182,27,138}</t>
-  </si>
-  <si>
-    <t>{113,185,82,135}</t>
-  </si>
-  <si>
-    <t>{131,144,95,176}</t>
-  </si>
-  <si>
-    <t>{112,207,192,113}</t>
-  </si>
-  <si>
-    <t>{113,214,166,106}</t>
-  </si>
-  <si>
-    <t>{131,218,82,102}</t>
-  </si>
-  <si>
-    <t>{118,217,80,103}</t>
-  </si>
-  <si>
-    <t>{112,194,66,126}</t>
-  </si>
-  <si>
-    <t>{104,181,92,139}</t>
-  </si>
-  <si>
-    <t>{147,197,27,141}</t>
-  </si>
-  <si>
-    <t>{153,183,49,137}</t>
-  </si>
-  <si>
-    <t>{160,188,37,132}</t>
-  </si>
-  <si>
-    <t>{161,192,36,128}</t>
-  </si>
-  <si>
-    <t>{156,186,34,134}</t>
-  </si>
-  <si>
-    <t>{147,180,26,140}</t>
-  </si>
-  <si>
-    <t>{146,182,28,138}</t>
-  </si>
-  <si>
-    <t>{153,183,41,137}</t>
-  </si>
-  <si>
-    <t>{160,185,37,135}</t>
-  </si>
-  <si>
-    <t>{163,190,34,130}</t>
-  </si>
-  <si>
-    <t>{158,187,31,133}</t>
-  </si>
-  <si>
-    <t>{146,186,40,134}</t>
-  </si>
-  <si>
-    <t>{146,184,49,136}</t>
-  </si>
-  <si>
-    <t>{146,183,47,137}</t>
-  </si>
-  <si>
-    <t>{147,182,35,138}</t>
-  </si>
-  <si>
-    <t>{148,181,27,139}</t>
-  </si>
-  <si>
-    <t>{154,184,33,136}</t>
-  </si>
-  <si>
-    <t>{160,186,37,134}</t>
-  </si>
-  <si>
-    <t>{166,189,32,131}</t>
-  </si>
-  <si>
-    <t>{147,189,27,131}</t>
-  </si>
-  <si>
-    <t>{127,190,75,130}</t>
-  </si>
-  <si>
-    <t>{136,188,66,132}</t>
-  </si>
-  <si>
-    <t>{142,184,54,136}</t>
-  </si>
-  <si>
-    <t>{152,182,27,138}</t>
-  </si>
-  <si>
-    <t>{159,181,28,139}</t>
-  </si>
-  <si>
-    <t>{146,180,30,140}</t>
-  </si>
-  <si>
-    <t>{140,180,42,140}</t>
-  </si>
-  <si>
-    <t>{135,183,62,137}</t>
-  </si>
-  <si>
-    <t>{128,184,74,136}</t>
-  </si>
-  <si>
-    <t>{133,182,60,138}</t>
-  </si>
-  <si>
-    <t>{136,180,55,140}</t>
-  </si>
-  <si>
-    <t>{142,181,42,139}</t>
-  </si>
-  <si>
-    <t>{148,180,25,140}</t>
-  </si>
-  <si>
-    <t>{147,179,26,141}</t>
-  </si>
-  <si>
-    <t>{148,181,45,139}</t>
-  </si>
-  <si>
-    <t>{148,181,57,139}</t>
-  </si>
-  <si>
-    <t>{148,181,65,139}</t>
-  </si>
-  <si>
-    <t>{148,181,69,139}</t>
-  </si>
-  <si>
-    <t>{148,181,63,139}</t>
-  </si>
-  <si>
-    <t>{148,181,51,139}</t>
-  </si>
-  <si>
-    <t>{148,181,31,139}</t>
-  </si>
-  <si>
-    <t>{148,181,54,139}</t>
-  </si>
-  <si>
-    <t>{148,181,64,141}</t>
-  </si>
-  <si>
-    <t>{139,166,60,154}</t>
-  </si>
-  <si>
-    <t>{148,181,69,141}</t>
-  </si>
-  <si>
-    <t>{147,180,60,140}</t>
-  </si>
-  <si>
-    <t>{148,181,31,141}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -948,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1236,28 +970,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="20.45"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1279,46 +1012,13 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1338,19 +1038,13 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1370,25 +1064,13 @@
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1408,22 +1090,10 @@
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -1446,37 +1116,13 @@
       <c r="I5">
         <v>7</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1497,12 +1143,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1523,9 +1169,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0.3</v>
@@ -1548,43 +1194,10 @@
       <c r="I8">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.3</v>
@@ -1605,9 +1218,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0.3</v>
@@ -1628,9 +1241,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0.2</v>
@@ -1651,9 +1264,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -1676,34 +1289,10 @@
       <c r="I12">
         <v>7</v>
       </c>
-      <c r="K12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" t="s">
-        <v>112</v>
-      </c>
-      <c r="P12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>114</v>
-      </c>
-      <c r="R12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -1726,34 +1315,10 @@
       <c r="I13">
         <v>7</v>
       </c>
-      <c r="K13" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>120</v>
-      </c>
-      <c r="R13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1776,34 +1341,10 @@
       <c r="I14">
         <v>7</v>
       </c>
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1826,34 +1367,10 @@
       <c r="I15">
         <v>7</v>
       </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1876,37 +1393,13 @@
       <c r="I16">
         <v>7</v>
       </c>
-      <c r="K16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0.3</v>
@@ -1926,28 +1419,10 @@
       <c r="I17">
         <v>5</v>
       </c>
-      <c r="K17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1970,40 +1445,10 @@
       <c r="I18">
         <v>9</v>
       </c>
-      <c r="K18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N18" t="s">
-        <v>84</v>
-      </c>
-      <c r="O18" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>87</v>
-      </c>
-      <c r="R18" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18" t="s">
-        <v>89</v>
-      </c>
-      <c r="T18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2026,40 +1471,10 @@
       <c r="I19">
         <v>9</v>
       </c>
-      <c r="K19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O19" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R19" t="s">
-        <v>97</v>
-      </c>
-      <c r="S19" t="s">
-        <v>98</v>
-      </c>
-      <c r="T19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2081,30 +1496,6 @@
       </c>
       <c r="I20">
         <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" t="s">
-        <v>103</v>
-      </c>
-      <c r="O20" t="s">
-        <v>104</v>
-      </c>
-      <c r="P20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>106</v>
-      </c>
-      <c r="R20" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
